--- a/src/test/resources/cases_v6.xlsx
+++ b/src/test/resources/cases_v6.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
   <si>
     <t>CaseId(用例编号)</t>
     <phoneticPr fontId="1" type="noConversion"/>
